--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-location.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:25:04+00:00</t>
+    <t>2024-02-07T09:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-location.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:30:33+00:00</t>
+    <t>2024-02-21T11:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1849,25 +1849,6 @@
     <t>ADXP[partType=STB]</t>
   </si>
   <si>
-    <t>Location.address.line.extension:precinct</t>
-  </si>
-  <si>
-    <t>precinct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-precinct}
-</t>
-  </si>
-  <si>
-    <t>lieuDit (Adresse) : Lieu qui porte un nom rappelant une particularité topographique ou historique</t>
-  </si>
-  <si>
-    <t>A subsection of a municipality.</t>
-  </si>
-  <si>
-    <t>ADXP[partType=PRE]</t>
-  </si>
-  <si>
     <t>Location.address.line.extension:postalBox</t>
   </si>
   <si>
@@ -1885,6 +1866,22 @@
   </si>
   <si>
     <t>ADXP[partType=POB]</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:lieuDit</t>
+  </si>
+  <si>
+    <t>lieuDit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-lieu-dit}
+</t>
+  </si>
+  <si>
+    <t>lieuDit (Adresse) : Lieu qui porte un nom rappelant une particularité topographique ou historique</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour indiquer le lieu dit</t>
   </si>
   <si>
     <t>Location.address.line.value</t>
@@ -2145,6 +2142,10 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
+</t>
+  </si>
+  <si>
     <t>Organization responsible for provisioning and upkeep</t>
   </si>
   <si>
@@ -2163,7 +2164,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location)
 </t>
   </si>
   <si>
@@ -3421,7 +3422,7 @@
         <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>74</v>
@@ -3963,7 +3964,7 @@
         <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>74</v>
@@ -4609,7 +4610,7 @@
         <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>74</v>
@@ -4717,7 +4718,7 @@
         <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>74</v>
@@ -4825,7 +4826,7 @@
         <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>74</v>
@@ -4933,7 +4934,7 @@
         <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>74</v>
@@ -5041,7 +5042,7 @@
         <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>74</v>
@@ -5149,7 +5150,7 @@
         <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>74</v>
@@ -5365,7 +5366,7 @@
         <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>74</v>
@@ -5473,7 +5474,7 @@
         <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>74</v>
@@ -5905,7 +5906,7 @@
         <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>74</v>
@@ -7647,7 +7648,7 @@
         <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>74</v>
@@ -8079,7 +8080,7 @@
         <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>74</v>
@@ -10035,7 +10036,7 @@
         <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>74</v>
@@ -10255,7 +10256,7 @@
         <v>83</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>74</v>
@@ -10365,7 +10366,7 @@
         <v>83</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>74</v>
@@ -10585,7 +10586,7 @@
         <v>83</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>74</v>
@@ -10691,7 +10692,7 @@
         <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>74</v>
@@ -11011,7 +11012,7 @@
         <v>83</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>74</v>
@@ -11119,7 +11120,7 @@
         <v>83</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>74</v>
@@ -11227,7 +11228,7 @@
         <v>83</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>74</v>
@@ -11441,7 +11442,7 @@
         <v>83</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>74</v>
@@ -12853,7 +12854,7 @@
         <v>83</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>74</v>
@@ -12961,7 +12962,7 @@
         <v>83</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>74</v>
@@ -13069,7 +13070,7 @@
         <v>83</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>74</v>
@@ -13177,7 +13178,7 @@
         <v>83</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>74</v>
@@ -13285,7 +13286,7 @@
         <v>83</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>74</v>
@@ -13925,7 +13926,7 @@
         <v>83</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>74</v>
@@ -14033,7 +14034,7 @@
         <v>83</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>74</v>
@@ -14141,7 +14142,7 @@
         <v>83</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>74</v>
@@ -14222,7 +14223,7 @@
         <v>114</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>603</v>
+        <v>74</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>74</v>
@@ -14230,10 +14231,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14259,10 +14260,10 @@
         <v>99</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14286,34 +14287,34 @@
         <v>74</v>
       </c>
       <c r="W108" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF108" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
@@ -14336,14 +14337,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14365,10 +14366,10 @@
         <v>99</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>300</v>
@@ -14385,43 +14386,43 @@
         <v>74</v>
       </c>
       <c r="T109" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF109" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -14436,7 +14437,7 @@
         <v>96</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>74</v>
@@ -14444,14 +14445,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14473,13 +14474,13 @@
         <v>99</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14493,43 +14494,43 @@
         <v>74</v>
       </c>
       <c r="T110" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF110" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -14544,7 +14545,7 @@
         <v>96</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>74</v>
@@ -14552,14 +14553,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14581,10 +14582,10 @@
         <v>99</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>300</v>
@@ -14637,7 +14638,7 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
@@ -14652,7 +14653,7 @@
         <v>96</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>74</v>
@@ -14660,14 +14661,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14689,10 +14690,10 @@
         <v>99</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>300</v>
@@ -14709,43 +14710,43 @@
         <v>74</v>
       </c>
       <c r="T112" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF112" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
@@ -14760,7 +14761,7 @@
         <v>96</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>74</v>
@@ -14768,10 +14769,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14797,13 +14798,13 @@
         <v>99</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14853,7 +14854,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14868,7 +14869,7 @@
         <v>96</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>74</v>
@@ -14876,10 +14877,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14905,16 +14906,16 @@
         <v>348</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>351</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>74</v>
@@ -14927,43 +14928,43 @@
         <v>74</v>
       </c>
       <c r="T114" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF114" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14986,10 +14987,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15015,16 +15016,16 @@
         <v>257</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>429</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>74</v>
@@ -15052,11 +15053,11 @@
         <v>152</v>
       </c>
       <c r="Y115" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="Z115" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="Z115" t="s" s="2">
-        <v>653</v>
-      </c>
       <c r="AA115" t="s" s="2">
         <v>74</v>
       </c>
@@ -15073,7 +15074,7 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -15088,7 +15089,7 @@
         <v>96</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>425</v>
@@ -15096,10 +15097,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15122,17 +15123,17 @@
         <v>74</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>74</v>
@@ -15181,7 +15182,7 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -15196,7 +15197,7 @@
         <v>96</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>74</v>
@@ -15204,10 +15205,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15310,10 +15311,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15418,13 +15419,13 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>74</v>
@@ -15437,7 +15438,7 @@
         <v>83</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>74</v>
@@ -15446,13 +15447,13 @@
         <v>74</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15526,14 +15527,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -15555,10 +15556,10 @@
         <v>106</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>109</v>
@@ -15613,7 +15614,7 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
@@ -15636,10 +15637,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15662,16 +15663,16 @@
         <v>74</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -15721,7 +15722,7 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>83</v>
@@ -15736,7 +15737,7 @@
         <v>96</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>74</v>
@@ -15744,10 +15745,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15770,16 +15771,16 @@
         <v>74</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M122" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="N122" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15829,7 +15830,7 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>83</v>
@@ -15844,7 +15845,7 @@
         <v>96</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>74</v>
@@ -15852,10 +15853,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15878,16 +15879,16 @@
         <v>74</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="M123" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="N123" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -15937,7 +15938,7 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>75</v>
@@ -15952,7 +15953,7 @@
         <v>96</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>74</v>
@@ -15960,10 +15961,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15986,7 +15987,7 @@
         <v>84</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>357</v>
+        <v>685</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>686</v>
@@ -16047,7 +16048,7 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
@@ -16206,7 +16207,7 @@
         <v>74</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L126" t="s" s="2">
         <v>699</v>
@@ -16509,7 +16510,7 @@
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -16531,10 +16532,10 @@
         <v>106</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>109</v>
@@ -16589,7 +16590,7 @@
         <v>74</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>75</v>
